--- a/02_programme_task/xlsx_out/50.Philippians.xlsx
+++ b/02_programme_task/xlsx_out/50.Philippians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1003 +453,1303 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul and Timothy, servant16's of Christ Jesus, To all the saints in Christ Jesus who are at Philippi, with the overseers and deacons: 2</t>
+          <t>The Letter of Paul to the Philippians Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Philippians 1:4</t>
+          <t>Philippians 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>always in every prayer of mine for you all making my prayer with joy, 5</t>
+          <t>Paul and Timothy, servant s of Christ Jesus, To all the a saints in Christ Jesus who are at Philippi, with the b overseers and c deacons:</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Philippians 1:6</t>
+          <t>Philippians 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>And I am sure of this, that he who began a good work in you will bring it to completion at the day of Jesus Christ. 7</t>
+          <t>d Grace to you and peace from God our Father and the Lord Jesus Christ. Thanksgiving and Prayer</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Philippians 1:7</t>
+          <t>Philippians 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>It is right for me to feel this way about you all, because I hold you in my heart, for you are all partakers with me of grace, both in my imprisonment and in the defense and confirmation of the gospel. 8</t>
+          <t>e I thank my God f in all my remembrance of you,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Philippians 1:8</t>
+          <t>Philippians 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For God is my witness, how I yearn for you all with the affection of Christ Jesus. 9</t>
+          <t>always in every prayer of mine for you all making my prayer with joy,</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Philippians 1:9</t>
+          <t>Philippians 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>And it is my prayer that your love may abound more and more, with knowledge and all discernment,</t>
+          <t>g because of your partnership in the gospel from the first day until now.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Philippians 1:10</t>
+          <t>Philippians 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>so that you may approve what is excellent, and so be pure and blameless for the day of Christ,</t>
+          <t>And I am sure of this, that he who began h a good work in you i will bring it to completion at j the day of Jesus Christ.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Philippians 1:11</t>
+          <t>Philippians 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>filled with the fruit of righteousness that comes through Jesus Christ, to the glory and praise of God. The Advance of the Gospel</t>
+          <t>It is right for me to feel this way about you all, because I hold you k in my heart, for you are all l partakers with me of grace, both m in my imprisonment and in n the defense and confirmation of the gospel.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Philippians 1:12</t>
+          <t>Philippians 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I want you to know, brothers, that what has happened to me has really served to advance the gospel,</t>
+          <t>For o God is my witness, p how I yearn for you all with the affection of Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Philippians 1:13</t>
+          <t>Philippians 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>so that it has become known throughout the whole imperial guar16 d and to all the rest that my imprisonment is for Christ.</t>
+          <t>And it is my prayer that q your love may abound more and more, r with knowledge and all discernment,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Philippians 1:14</t>
+          <t>Philippians 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>And most of the brothers, having become confident in the Lord by my imprisonment, are much more bold to speak the wor16 d without fear.</t>
+          <t>so that you may approve what is excellent, s and so be pure and blameless t for the day of Christ,</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Philippians 1:16</t>
+          <t>Philippians 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The latter do it out of love, knowing that I am put here for the defense of the gospel.</t>
+          <t>filled u with the fruit of righteousness that comes v through Jesus Christ, w to the glory and praise of God. The Advance of the Gospel</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Philippians 1:17</t>
+          <t>Philippians 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The former proclaim Christ out of selfish ambition, not sincerely but thinking to afflict me in my imprisonment.</t>
+          <t>I want you to know, brothers, that what has happened to me has really x served to advance the gospel,</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Philippians 1:18</t>
+          <t>Philippians 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>What then Only that in every way, whether in pretense or in truth, Christ is proclaimed, and in that I rejoice. To Live Is Christ Yes, and I will rejoice,</t>
+          <t>so that it has become known throughout the whole imperial guar d and y to all the rest that z my imprisonment is for Christ.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Philippians 1:19</t>
+          <t>Philippians 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>for I know that through your prayers and the help of the Spirit of Jesus Christ this will turn out for my deliverance,</t>
+          <t>And most of the brothers, having become confident in the Lord by my imprisonment, are much more bold a to speak the wor d without fear.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Philippians 1:20</t>
+          <t>Philippians 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>as it is my eager expectation and hope that I will not be at all ashamed, but that with full courage now as always Christ will be honored in my body, whether by life or by death.</t>
+          <t>b Some indeed preach Christ from envy and rivalry, but others from good will.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Philippians 1:21</t>
+          <t>Philippians 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>For to me to live is Christ, and to die is gain.</t>
+          <t>The latter do it out of love, c knowing that I am put here for d the defense of the gospel.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Philippians 1:22</t>
+          <t>Philippians 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>If I am to live in the flesh, that means fruitful labor for me. Yet which I shall choose I cannot tell.</t>
+          <t>The former proclaim Christ e out of selfish ambition, not sincerely but thinking to afflict me in my imprisonment.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Philippians 1:24</t>
+          <t>Philippians 1:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>But to remain in the flesh is more necessary on your account.</t>
+          <t>What then? Only that in every way, whether in pretense or in truth, Christ is proclaimed, and in that I rejoice. To Live Is Christ Yes, and I will rejoice,</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Philippians 1:26</t>
+          <t>Philippians 1:19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>so that in me you may have ample cause to glory in Christ Jesus, because of my coming to you again.</t>
+          <t>for I know that f through your prayers and g the help of h the Spirit of Jesus Christ this will turn out for my deliverance,</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Philippians 1:27</t>
+          <t>Philippians 1:20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Only let your manner of life be worth16 y of the gospel of Christ, so that whether I come and see you or am absent, I may hear of you that you are standing firm in one spirit, with one mind striving side by side for the faith of the gospel,</t>
+          <t>as it is my eager expectation and hope i that I will not be at all ashamed, but that with full j courage now as always Christ k will be honored in my body, l whether by life or by death.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Philippians 1:28</t>
+          <t>Philippians 1:21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>and not frightened in anything by your opponents. This is a clear sign to them of their destruction, but of your salvation, and that from God.</t>
+          <t>For to me m to live is Christ, and to die is gain.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Philippians 1:29</t>
+          <t>Philippians 1:22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>For it has been granted to you that for the sake of Christ you should not only believe in him but also suffer for his sake,</t>
+          <t>If I am to live in the flesh, that means fruitful labor for me. Yet which I shall choose I cannot tell.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Philippians 1:30</t>
+          <t>Philippians 1:23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>engaged in the same conflict that you saw I had and now hear that I still have. Christ's Example of Humility 2</t>
+          <t>n I am hard pressed between the two. My desire is o to depart and p be with Christ, for that is far better.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Philippians 2:1</t>
+          <t>Philippians 1:24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>So if there is any encouragement in Christ, any comfort from love, any participation in the Spirit, any affection and sympathy, 2</t>
+          <t>But to remain in the flesh is more necessary on your account.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Philippians 2:3</t>
+          <t>Philippians 1:25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Do nothing from selfish ambition or conceit, but in humility count others more significant than yourselves. 4</t>
+          <t>q Convinced of this, r I know that I will remain and continue with you all, for your s progress and t joy in the faith,</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Philippians 2:4</t>
+          <t>Philippians 1:26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Let each of you look not only to his own interests, but also to the interests of others. 5</t>
+          <t>so that in me u you may have ample cause to glory in Christ Jesus, because of my coming to you again.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Philippians 2:7</t>
+          <t>Philippians 1:27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>but emptied himself, by taking the form of a servant, being born in the likeness of men. 8</t>
+          <t>Only v let your manner of life be w worthy of the gospel of Christ, so that whether I come and see you or am absent, I may hear of you x that you are standing firm in one spirit, with y one mind z striving side by side for the faith of the gospel,</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Philippians 2:8</t>
+          <t>Philippians 1:28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>And being found in human form, he humbled himself by becoming obedient to the point of death, even death on a cross. 9</t>
+          <t>and not frightened in anything by your opponents. This is a a clear sign to them of their destruction, but b of your salvation, and that from God.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Philippians 2:10</t>
+          <t>Philippians 1:29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>so that at the name of Jesus every knee should bow, in heaven and on earth and under the earth,</t>
+          <t>For c it has been granted to you that for the sake of Christ you should not only believe in him but also b suffer for his sake,</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Philippians 2:11</t>
+          <t>Philippians 1:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>and every tongue confess that Jesus Christ is Lord, to the glory of God the Father. Lights in the World</t>
+          <t>engaged in the same d conflict that e you saw I had and now hear that I still have. Christ s Example of Humility</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Philippians 2:12</t>
+          <t>Philippians 2:1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Therefore, my beloved, as you have always obeyed, so now, not only as in my presence but much more in my absence, work out your own salvation with fear and trembling,</t>
+          <t>So if there is any encouragement in Christ, any comfort from f love, any g participation in the Spirit, any h affection and sympathy,</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Philippians 2:13</t>
+          <t>Philippians 2:2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>for it is God who works in you, both to will and to work for his good pleasure.</t>
+          <t>i complete my joy by being j of the same mind, having the same love, being in full accord and of one mind.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Philippians 2:14</t>
+          <t>Philippians 2:3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Do all things without grumbling or disputing,</t>
+          <t>Do nothing from k selfish ambition or l conceit, but in m humility count others more significant than yourselves.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Philippians 2:15</t>
+          <t>Philippians 2:4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>that you may be blameless and innocent, children of God without blemish in the midst of a crooked and twisted generation, among whom you shine as lights in the world,</t>
+          <t>Let each of you n look not only to his own interests, but also to the interests of others.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Philippians 2:16</t>
+          <t>Philippians 2:5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>holding fast to the word of life, so that in the day of Christ I may be proud that I id not run in vain or labor in vain.</t>
+          <t>o Have this mind among yourselves, which is yours in Christ Jesus,</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Philippians 2:17</t>
+          <t>Philippians 2:6</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Even if I am to be poured out as a drink offering upon the sacrificial offering of your faith, I m glad and rejoice with you all.</t>
+          <t>p who, though he was in q the form of God, did not count equality with God r a thing to be grasped,</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Philippians 2:18</t>
+          <t>Philippians 2:7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Likewise you also should be glad and rejoice with me. Timothy and Epaphroditus</t>
+          <t>but s emptied himself, by taking the form of a t servant,</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Philippians 2:19</t>
+          <t>Philippians 2:8</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>I hope in the Lord Jesus to send Timothy to you soon, so that I too may be cheered by news of you.</t>
+          <t>u being born in the likeness of men.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Philippians 2:20</t>
+          <t>Philippians 2:8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>For I have no one like him, who will be genuinely concerned for your welfare.</t>
+          <t>And being found in human form, he humbled himself by v becoming obedient to the point of death, w even death on a cross.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Philippians 2:21</t>
+          <t>Philippians 2:9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>For they all seek their own interests, not those of Jesus Christ.</t>
+          <t>x Therefore y God has z highly exalted him and bestowed on him a the name that is above every name,</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Philippians 2:22</t>
+          <t>Philippians 2:10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>But you know Timothy's proven worth, how as a so16 n with a father he has served with me in the gospel.</t>
+          <t>so that at the name of Jesus b every knee should bow, c in heaven and on earth and under the earth,</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Philippians 2:23</t>
+          <t>Philippians 2:11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>I hope therefore to send him just as soon as I see how it will go with me,</t>
+          <t>and d every tongue confess that Jesus Christ is e Lord, to the glory of God the Father. Lights in the World</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Philippians 2:24</t>
+          <t>Philippians 2:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>and I trust in the Lord that shortly I myself will come also.</t>
+          <t>Therefore, my beloved, f as you have always g obeyed, so now, not only as in my presence but much more in my absence, work out your own salvation with fear and trembling,</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Philippians 2:25</t>
+          <t>Philippians 2:13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>I have thought it necessary to send to you Epaphroditus my brother and fellow worker and fellow soldier, and your messenger and minister to my need,</t>
+          <t>for h it is God who works in you, both to will and to work for i his good pleasure.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Philippians 2:26</t>
+          <t>Philippians 2:14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>for he has been longing for you all and has been distressed because you heard that he was ill.</t>
+          <t>Do all things j without grumbling or k disputing,</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Philippians 2:27</t>
+          <t>Philippians 2:15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Indeed he was ill, near to death. But God had mercy on him, and not only on him but on me also, lest I should have sorrow upon sorrow.</t>
+          <t>that you may be blameless and innocent, l children of God m without blemish n in the midst of o a crooked and twisted generation, among whom you shine p as lights in the world,</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Philippians 2:28</t>
+          <t>Philippians 2:16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>I m the more eager to send him, therefore, that you may rejoice at seeing him again, and that I may be less anxious.</t>
+          <t>holding fast to q the word of life, so that in r the day of Christ s I may be proud that t I did not run in vain or labor in vain.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Philippians 2:29</t>
+          <t>Philippians 2:17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>So receive him in the Lord with all joy, and honor such men,</t>
+          <t>Even if I am to be u poured out as a drink offering upon v the sacrificial offering of your faith, I am glad and rejoice with you all.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Philippians 2:30</t>
+          <t>Philippians 2:18</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>for he nearly die16 d for the work of Christ, risking his life to complete what was lacking in your service to me. Righteousness Through Faith in Christ 3</t>
+          <t>Likewise you also should be glad and rejoice with me. Timothy and Epaphroditus</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Philippians 3:1</t>
+          <t>Philippians 2:19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Finally, my brothers, rejoice in the Lord. To write the same things to you is no trouble to me and is safe for you. 2</t>
+          <t>I hope in the Lord Jesus w to send Timothy to you soon, so that I too may be cheered by news of you.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Philippians 3:2</t>
+          <t>Philippians 2:20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Look out for the dogs, look out for the evildoers, look out for those who mutilate the flesh. 3</t>
+          <t>For I have no one x like him, who will be genuinely concerned for your welfare.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Philippians 3:3</t>
+          <t>Philippians 2:21</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>For we are the circumcision, who worship by the Spirit of Go16 d and glory in Christ Jesus and put no confidence in the fles h16 4</t>
+          <t>For they all y seek their own interests, not those of Jesus Christ.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Philippians 3:4</t>
+          <t>Philippians 2:22</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>though I myself have reason for confidence in the flesh also. If anyone else thinks he has reason for confidence in the flesh, I have more: 5</t>
+          <t>But you know Timothy s</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Philippians 3:7</t>
+          <t>Philippians 2:23</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>But whatever gain I had, I ounted as loss for the sake of Christ. 8</t>
+          <t>z proven worth, how a as a so n with a father b he has served with me in the gospel.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Philippians 3:8</t>
+          <t>Philippians 2:23</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Indeed, I ount everything as loss because of the surpassing worth of knowing Christ Jesus my Lord. For his sake I have suffered the loss of all things and count them as rubbish, in order that I may gain Christ 9</t>
+          <t>I hope therefore to send him just as soon as I see how it will go with me,</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Philippians 3:9</t>
+          <t>Philippians 2:24</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>and be found in him, not having a righteousness of my own that comes from the law, but that which comes through faith in Christ, the righteousness from God that depends on fait h16</t>
+          <t>and c I trust in the Lord that shortly I myself will come also.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Philippians 3:10</t>
+          <t>Philippians 2:25</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>that I may know him and the power of his resurrection, and may share his sufferings, becoming like him in his death,</t>
+          <t>I have thought it necessary to send to you d Epaphroditus my brother and fellow worker and e fellow soldier, and your messenger and f minister to my need,</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Philippians 3:11</t>
+          <t>Philippians 2:26</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>that by any means possible I may attain the resurrection from the dead. Straining Toward the Goal</t>
+          <t>for he has been longing for you all and has been distressed because you heard that he was ill.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Philippians 3:12</t>
+          <t>Philippians 2:27</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Not that I have already obtained this or am already perfect, but I press on to make it my own, because Christ Jesus has made me his own.</t>
+          <t>Indeed he was ill, near to death. But God had mercy on him, and not only on him but on me also, lest I should have sorrow upon sorrow.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Philippians 3:13</t>
+          <t>Philippians 2:28</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Brothers, I o not consider that I have made it my own. But one thing I do: forgetting what lies behind and straining forward to what lies ahead,</t>
+          <t>I am the more eager to send him, therefore, that you may rejoice at seeing him again, and that I may be less anxious.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Philippians 3:14</t>
+          <t>Philippians 2:29</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>I press on toward the goal for the prize of the upward call of God in Christ Jesus.</t>
+          <t>So g receive him in the Lord with all joy, and h honor such men,</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Philippians 3:15</t>
+          <t>Philippians 2:30</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Let those of us who are mature think this way, and if in anything you think otherwise, God will reveal that also to you.</t>
+          <t>for he nearly die d</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Philippians 3:16</t>
+          <t>Philippians 2:31</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Only let us hold true to what we have attained.</t>
+          <t>i for the work of Christ, risking his life j to complete what was lacking in your service to me. Righteousness Through Faith in Christ</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Philippians 3:17</t>
+          <t>Philippians 3:1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Brothers, join in imitating me, and keep your eyes on those who walk according to the example you have in us.</t>
+          <t>Finally, my brothers,</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Philippians 3:18</t>
+          <t>Philippians 3:2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>For many, of whom I have often told you and now tell you even with tears, walk as enemies of the cross of Christ.</t>
+          <t>k rejoice in the Lord. l To write the same things to you is no trouble to me and is safe for you.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Philippians 3:20</t>
+          <t>Philippians 3:2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>But our citizenship is in heaven, and from it we await a Savior, the Lord Jesus Christ,</t>
+          <t>Look out for m the dogs, look out for n the evildoers, look out for those who mutilate the flesh.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Philippians 3:21</t>
+          <t>Philippians 3:3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>who will transform our lowly body to be like his glorious body, by the power that enables him even to subject all things to himself. 4</t>
+          <t>For o we are the circumcision, p who worship q by the Spirit of Go d and r glory in Christ Jesus and put no confidence in the fles h</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Philippians 4:1</t>
+          <t>Philippians 3:4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Therefore, my brothers, whom I love and long for, my joy and crown, stand firm thus in the Lord, my beloved. Exhortation, Encouragement, and Prayer 2</t>
+          <t>s though I myself have reason for confidence in the flesh also. If anyone else thinks he has reason for confidence in the flesh, I have more:</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Philippians 4:2</t>
+          <t>Philippians 3:5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>I ntreat Euodia and I entreat Syntyche to agree in the Lord. 3</t>
+          <t>t circumcised on the eighth day, u of the people of Israel, v of the tribe of Benjamin, u a Hebrew of Hebrews; as to the law, w a Pharisee;</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Philippians 4:3</t>
+          <t>Philippians 3:6</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Yes, I sk you also, true companion, help these women, who have labore16 d side by side with me in the gospel together with Clement and the rest of my fellow workers, whose names are in the book of life. 4 - -</t>
+          <t>x as to zeal, y a persecutor of the church; z as to righteousness under the law, blameless.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Philippians 4:8</t>
+          <t>Philippians 3:7</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Finally, brothers, whatever is true, whatever is honorable, whatever is just, whatever is pure, whatever is lovely, whatever is commendable, if there is any excellence, if there is anything worthy of praise, think about these things. 9</t>
+          <t>But a whatever gain I had, b I counted as loss for the sake of Christ.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Philippians 4:9</t>
+          <t>Philippians 3:8</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>What you have learne d and received and heard and seen in m16 e practice these things, and the God of peace will be with you. God's Provision</t>
+          <t>Indeed, I count everything as loss because of c the surpassing worth of d knowing Christ Jesus my Lord. For his sake I e have suffered the loss of all things and count them as rubbish, in order that I may gain Christ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Philippians 4:10</t>
+          <t>Philippians 3:9</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>I rejoiced in the Lord greatly that now at length you have revived your concern for me. You were indeed concerned for me, but you had no opportunity.</t>
+          <t>and be found in him, not having f a righteousness of my own that comes from the law, but g that which comes through faith in Christ, the righteousness from God that depends on fait h</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Philippians 4:11</t>
+          <t>Philippians 3:10</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Not that I am speaking of being in need, for I have learned, in whatever situation I am, to be content.</t>
+          <t>h that I may know him and i the power of his resurrection, and j may share his sufferings, becoming like him in his death,</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Philippians 4:12</t>
+          <t>Philippians 3:11</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>I know how to be brought low, and I know how to abound. In any and every circumstance, I have learned the secret of facing plenty and hunger, abundance and need.</t>
+          <t>that by any means possible I may k attain the resurrection from the dead. Straining Toward the Goal</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Philippians 4:13</t>
+          <t>Philippians 3:12</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>I n do all things through him who strengthens me.</t>
+          <t>Not that I have already l obtained this or m am already perfect, but I press on to make it my own, because Christ Jesus has made me his own.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Philippians 4:14</t>
+          <t>Philippians 3:13</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Yet it was kind of you to shar16 e my trouble.</t>
+          <t>Brothers, I do not consider that I have made it my own. But one thing I do: n forgetting what lies behind and straining forward to what lies ahead,</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Philippians 4:15</t>
+          <t>Philippians 3:14</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>And you Philippians yourselves know that in the beginning of the gospel, when I left Macedonia, no church entered into partnership with me in giving and receiving, except you only.</t>
+          <t>I press on toward the goal for o the prize of the upward p call of God in Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Philippians 4:16</t>
+          <t>Philippians 3:15</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Even in Thessalonica you sent me help for my needs once and again.</t>
+          <t>Let those of us who are q mature think this way, and if in anything r you think otherwise, s God will reveal that also to you.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Philippians 4:18</t>
+          <t>Philippians 3:16</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>I have received full payment, and more. I m well supplied, having received from Epaphroditus the gifts you sent, a fragrant offering, a sacrifice acceptable and pleasing to God.</t>
+          <t>Only t let us hold true to what we have attained.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Philippians 4:19</t>
+          <t>Philippians 3:17</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>And my God will supply every need of yours according to his riches in glory in Christ Jesus.</t>
+          <t>Brothers, u join in imitating me, and keep your eyes on those who walk v according to the example you have in us.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Philippians 4:20</t>
+          <t>Philippians 3:18</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>To our God and Father be glory forever and ever. Amen. Final Greetings</t>
+          <t>For w many, of whom I have often told you and now tell you x even with tears, walk as enemies of the cross of Christ.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>Philippians 3:19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>y Their end is destruction, z their god is their belly, and a they glory in their shame, with b minds set on earthly things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Philippians 3:20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>But c our citizenship is in heaven, and d from it we e await a Savior, the Lord Jesus Christ,</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Philippians 3:21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>who will transform f our lowly body g to be like his glorious body, h by the power that enables him even i to subject all things to himself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Philippians 4:1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Therefore, my brothers, whom I love and j long for, k my joy and l crown, m stand firm thus in the Lord, my beloved. Exhortation, Encouragement, and Prayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Philippians 4:2</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>I entreat Euodia and I entreat Syntyche to n agree in the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Philippians 4:3</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Yes, I ask you also, true companion, help these women, who have labore d side by side with me in the gospel together with Clement and the rest of my fellow workers, o whose names are in the book of life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Philippians 4:4</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>-1 -1 4:4 -1p -1 -1 Rejoice in the Lord always; again I will say, rejoice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Philippians 4:5</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>-1:5-1 Let your reasonablenes-1 s 1-1 be known to everyone. -1 q -1 -1 The Lord is at hand;</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Philippians 4:6</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>-1 -1 4:6 -1 r -1 -1 do not be anxious about anything, -1 s -1 -1 but in everything by prayer and supplication -1t -1 -1 with thanksgiving let your requests be made known to God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Philippians 4:7</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>-1:7-1 And -1 u -1 -1 the peace of God, -1 v -1 -1 which surpasses all understanding, will guard your hearts and your minds in Christ Jesus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Philippians 4:8</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Finally, brothers, whatever is true, whatever is honorable, whatever is just, whatever is pure, whatever is lovely, whatever is commendable, if there is any excellence, if there is anything worthy of praise, think about these things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Philippians 4:9</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>What you have learne d and w received and heard and seen x in me practice these things, and y the God of peace will be with you. God s Provision</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Philippians 4:10</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>I rejoiced in the Lord greatly that now at length z you have revived your concern for me. You were indeed concerned for me, but you had no opportunity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Philippians 4:11</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Not that I am speaking of being in need, for I have learned, in whatever situation I am, to be a content.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Philippians 4:12</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>I know how to be brought low, and I know how to abound. In any and every circumstance, I have learned the secret of facing plenty and b hunger, abundance and c need.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Philippians 4:13</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>I can do all things d through him who strengthens me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Philippians 4:14</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Yet it was kind of you e to shar e my trouble.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Philippians 4:15</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>And you Philippians yourselves know that f in the beginning of the gospel, when I left Macedonia, g no church entered into partnership with me in giving and receiving, except you only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Philippians 4:16</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Even in Thessalonica you sent me help for my needs once and again.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Philippians 4:17</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>h Not that I seek the gift, but I seek i the fruit that increases to your credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Philippians 4:18</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>I have received full payment, and more. I am well supplied, j having received from Epaphroditus the gifts you sent, k a fragrant offering, l a sacrifice acceptable and pleasing to God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Philippians 4:19</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>And my God m will supply every need of yours n according to his riches in glory in Christ Jesus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Philippians 4:20</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>To o our God and Father be p glory forever and ever. Amen. Final Greetings</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
           <t>Philippians 4:21</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Greet every saint in Christ Jesus. The brothers who are with me greet you.</t>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Greet every saint in Christ Jesus. q The brothers who are with me greet you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Philippians 4:22</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>r All the saints greet you, especially those of Caesar s household.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Philippians 4:23</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>s The grace of the Lord Jesus Christ be with your spirit.</t>
         </is>
       </c>
     </row>
